--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quochuy.lu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/quochuy_lu_globalservs_com/Documents/Documents/GitHub/Quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97AA7CA-5F15-4A88-8E3C-D7CF32207BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D97AA7CA-5F15-4A88-8E3C-D7CF32207BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C519549A-5D2A-4BF7-AE80-2A4DE349D797}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31680" yWindow="2130" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionsData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Topic</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>def</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -342,13 +345,13 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E13:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -362,7 +365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -377,7 +380,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -408,10 +411,18 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -629,23 +640,23 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
